--- a/Test Files/TestCaseSlaveFiles/MOKAM/WEB/CMT/B.xlsx
+++ b/Test Files/TestCaseSlaveFiles/MOKAM/WEB/CMT/B.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhiljustus/Katalon Studio/CDS App/Test Files/TestCaseSlaveFiles/MOKAM/WEB/CMT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A09031-5C97-F74B-A9D0-EA7319D23AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143A216F-EDA0-B044-A93E-123B1250EE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15140" xr2:uid="{51041AF8-7794-114B-AA42-1C7036D37471}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15140" activeTab="1" xr2:uid="{51041AF8-7794-114B-AA42-1C7036D37471}"/>
   </bookViews>
   <sheets>
     <sheet name="Invalid" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,12 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>phone</t>
   </si>
   <si>
     <t>otp</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>aigsguhs</t>
   </si>
 </sst>
 </file>
@@ -394,7 +407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BCD013-556A-FB47-A684-11CD783ACB0C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -422,4 +435,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865C58E-6883-C140-9070-B2C672A0BB6E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test Files/TestCaseSlaveFiles/MOKAM/WEB/CMT/B.xlsx
+++ b/Test Files/TestCaseSlaveFiles/MOKAM/WEB/CMT/B.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhiljustus/Katalon Studio/CDS App/Test Files/TestCaseSlaveFiles/MOKAM/WEB/CMT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A09031-5C97-F74B-A9D0-EA7319D23AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02444479-F1C9-9C41-A603-0CED416792D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15140" xr2:uid="{51041AF8-7794-114B-AA42-1C7036D37471}"/>
   </bookViews>
   <sheets>
-    <sheet name="Invalid" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Invalid" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,12 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>phone</t>
   </si>
   <si>
     <t>otp</t>
+  </si>
+  <si>
+    <t>sigs</t>
+  </si>
+  <si>
+    <t>duhdiugd</t>
+  </si>
+  <si>
+    <t>skugs</t>
+  </si>
+  <si>
+    <t>dkhd</t>
   </si>
 </sst>
 </file>
@@ -391,10 +404,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62331C75-AFD7-324D-8DB3-64666156FC10}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BCD013-556A-FB47-A684-11CD783ACB0C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
